--- a/Docu/testplan NC tuinservice.xlsx
+++ b/Docu/testplan NC tuinservice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stef\Documents\ProjectL3 Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stef\Documents\Project L3\tuinder\tuinder\Docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECEB357-D34F-47F0-BAD6-A2C5672F2D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECE7EF8-1FF0-4F8A-BE5F-53D41BB7B333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4F2A2FB6-EF26-4F5D-98B7-6947D55BE445}"/>
   </bookViews>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86652B22-DC59-4BB2-858E-ED933BF22B53}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,6 +1490,7 @@
       <c r="J27" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K27" s="17"/>
     </row>
     <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1522,6 +1523,7 @@
       <c r="J31" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -1552,8 +1554,9 @@
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="9" t="s">
         <v>108</v>
@@ -1582,6 +1585,7 @@
       <c r="J33" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
